--- a/output/correlation/Summary_significant_cor.xlsx
+++ b/output/correlation/Summary_significant_cor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTD\OneDrive - HEC Montréal\esg\output\correlation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB087C0E-3739-460E-BD10-E611583ADF2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E75FBC9-9D1F-4458-8E36-B26842243B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B6803A76-6F49-4F25-B119-B4DE92D05361}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B6803A76-6F49-4F25-B119-B4DE92D05361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -240,38 +240,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,14 +280,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1164,14 +1164,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1348,14 +1348,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
@@ -1514,14 +1514,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
@@ -1681,13 +1681,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
@@ -1862,7 +1862,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,318 +1875,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="str">
+      <c r="A3" s="16" t="str">
         <f>[1]monthly_6f_ghg_significant_cor!B2</f>
         <v>Brown Bw</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <f>[1]monthly_6f_ghg_significant_cor!F2</f>
         <v>3.8717675178769902E-2</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="16">
         <f>[1]monthly_6f_ghg_significant_cor!G2</f>
         <v>0.22668753778056999</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <f>[2]monthly_6f_env_significant_cor!F2</f>
         <v>6.3078687583188797E-2</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="16">
         <f>[2]monthly_6f_env_significant_cor!G2</f>
         <v>7.8425647908071605E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="str">
+      <c r="A4" s="16" t="str">
         <f>[1]monthly_6f_ghg_significant_cor!B3</f>
         <v>Brown Fw</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <f>[1]monthly_6f_ghg_significant_cor!F3</f>
         <v>3.6669727681166303E-2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="16">
         <f>[1]monthly_6f_ghg_significant_cor!G3</f>
         <v>0.22408302170765201</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <f>[2]monthly_6f_env_significant_cor!F3</f>
         <v>6.3617103598772595E-2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="16">
         <f>[2]monthly_6f_env_significant_cor!G3</f>
         <v>7.7659071598161697E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="str">
+      <c r="A5" s="16" t="str">
         <f>[1]monthly_6f_ghg_significant_cor!B4</f>
         <v>Green Bw</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <f>[1]monthly_6f_ghg_significant_cor!F4</f>
         <v>5.15951403315109E-2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <f>[1]monthly_6f_ghg_significant_cor!G4</f>
         <v>8.4217437614957605E-2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <f>[2]monthly_6f_env_significant_cor!F4</f>
         <v>5.3116135882066998E-2</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <f>[2]monthly_6f_env_significant_cor!G4</f>
         <v>8.3969763004610995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="str">
+      <c r="A6" s="16" t="str">
         <f>[1]monthly_6f_ghg_significant_cor!B5</f>
         <v>Green Fw</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <f>[1]monthly_6f_ghg_significant_cor!F5</f>
         <v>5.1800322519343599E-2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <f>[1]monthly_6f_ghg_significant_cor!G5</f>
         <v>8.7682962930935901E-2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <f>[2]monthly_6f_env_significant_cor!F5</f>
         <v>5.5496334052492401E-2</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <f>[2]monthly_6f_env_significant_cor!G5</f>
         <v>7.6733333212884697E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="str">
+      <c r="A9" s="16" t="str">
         <f>[2]monthly_6f_env_significant_cor!B2</f>
         <v>Brown Bw</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="19" t="str">
         <f>B3</f>
         <v>Brown Backward-Looking</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <f>[3]daily_6f_ghg_significant_cor!F2</f>
         <v>0</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <f>[3]daily_6f_ghg_significant_cor!G2</f>
         <v>0.15140377361554799</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <f>[4]daily_6f_env_significant_cor!F2</f>
         <v>4.9516507911787002E-4</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="16">
         <f>[4]daily_6f_env_significant_cor!G2</f>
         <v>8.6439348969489897E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="str">
+      <c r="A10" s="16" t="str">
         <f>[2]monthly_6f_env_significant_cor!B3</f>
         <v>Brown Fw</v>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="19" t="str">
         <f t="shared" ref="B10:B12" si="0">B4</f>
         <v>Brown Forward-Looking</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <f>[3]daily_6f_ghg_significant_cor!F3</f>
         <v>0</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <f>[3]daily_6f_ghg_significant_cor!G3</f>
         <v>0.14814778218416</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <f>[4]daily_6f_env_significant_cor!F3</f>
         <v>5.7518974947111802E-4</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <f>[4]daily_6f_env_significant_cor!G3</f>
         <v>8.6346580913303703E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="str">
+      <c r="A11" s="16" t="str">
         <f>[2]monthly_6f_env_significant_cor!B4</f>
         <v>Green Bw</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Green Backward-Looking</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <f>[3]daily_6f_ghg_significant_cor!F4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <f>[3]daily_6f_ghg_significant_cor!G4</f>
         <v>1.0445207451711401E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <f>[4]daily_6f_env_significant_cor!F4</f>
         <v>1.42378609856894E-5</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="16">
         <f>[4]daily_6f_env_significant_cor!G4</f>
         <v>1.6430234941949302E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="str">
+      <c r="A12" s="16" t="str">
         <f>[2]monthly_6f_env_significant_cor!B5</f>
         <v>Green Fw</v>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Green Forward-Looking</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <f>[3]daily_6f_ghg_significant_cor!F5</f>
         <v>0</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <f>[3]daily_6f_ghg_significant_cor!G5</f>
         <v>1.18980444347186E-2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <f>[4]daily_6f_env_significant_cor!F5</f>
         <v>1.5486219224921E-5</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <f>[4]daily_6f_env_significant_cor!G5</f>
         <v>9.5514241024117E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
